--- a/data/BAP-matrix-versie2.xlsx
+++ b/data/BAP-matrix-versie2.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="24326"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="23801"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://studenthowest-my.sharepoint.com/personal/ine_verhaeghe_student_howest_be/Documents/TA/Semester 7/BAP7/7. Rapporteren/Product/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="3321" documentId="8_{E3EFD9FE-6DB4-48A0-9AAE-A7617DE4281E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{D4530AA1-1035-48C0-96FD-E73C9F5ACDA9}"/>
+  <xr:revisionPtr revIDLastSave="3329" documentId="8_{E3EFD9FE-6DB4-48A0-9AAE-A7617DE4281E}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="47" xr10:uidLastSave="{83DD3048-6618-48A5-9073-EB4D35776476}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" tabRatio="614" xr2:uid="{1D57A5DE-2CD8-47D8-903D-9F87A469CFFC}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" tabRatio="614" firstSheet="9" activeTab="13" xr2:uid="{1D57A5DE-2CD8-47D8-903D-9F87A469CFFC}"/>
   </bookViews>
   <sheets>
     <sheet name="Voorblad" sheetId="20" r:id="rId1"/>
@@ -36,6 +36,7 @@
     <definedName name="_xlnm._FilterDatabase" localSheetId="1" hidden="1">'Prioriteit-Groep-Element'!$A$1:$C$18</definedName>
     <definedName name="_ftnref1" localSheetId="12">'Premie-Voorwaarde'!$B$65</definedName>
     <definedName name="_Toc90366939" localSheetId="4">'Element-Ingreep'!$B$40</definedName>
+    <definedName name="_Toc93604346" localSheetId="12">'Premie-Voorwaarde'!$A$58</definedName>
   </definedNames>
   <calcPr calcId="191029"/>
   <extLst>
@@ -2149,8 +2150,17 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -2163,15 +2173,6 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="2">
@@ -2490,7 +2491,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{BD93A55F-8769-4C8D-89CF-48BCC465D05C}">
   <dimension ref="A1:O26"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection sqref="A1:O1"/>
     </sheetView>
   </sheetViews>
@@ -2501,173 +2502,173 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:15" ht="23.4" x14ac:dyDescent="0.45">
-      <c r="A1" s="22" t="s">
+      <c r="A1" s="17" t="s">
         <v>554</v>
       </c>
-      <c r="B1" s="22"/>
-      <c r="C1" s="22"/>
-      <c r="D1" s="22"/>
-      <c r="E1" s="22"/>
-      <c r="F1" s="22"/>
-      <c r="G1" s="22"/>
-      <c r="H1" s="22"/>
-      <c r="I1" s="22"/>
-      <c r="J1" s="22"/>
-      <c r="K1" s="22"/>
-      <c r="L1" s="22"/>
-      <c r="M1" s="22"/>
-      <c r="N1" s="22"/>
-      <c r="O1" s="22"/>
+      <c r="B1" s="17"/>
+      <c r="C1" s="17"/>
+      <c r="D1" s="17"/>
+      <c r="E1" s="17"/>
+      <c r="F1" s="17"/>
+      <c r="G1" s="17"/>
+      <c r="H1" s="17"/>
+      <c r="I1" s="17"/>
+      <c r="J1" s="17"/>
+      <c r="K1" s="17"/>
+      <c r="L1" s="17"/>
+      <c r="M1" s="17"/>
+      <c r="N1" s="17"/>
+      <c r="O1" s="17"/>
     </row>
     <row r="2" spans="1:15" s="5" customFormat="1" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="A2" s="24" t="s">
+      <c r="A2" s="20" t="s">
         <v>551</v>
       </c>
-      <c r="B2" s="24"/>
-      <c r="C2" s="24"/>
-      <c r="D2" s="24"/>
-      <c r="E2" s="24"/>
-      <c r="F2" s="24"/>
-      <c r="G2" s="24"/>
-      <c r="H2" s="24"/>
-      <c r="I2" s="24"/>
-      <c r="J2" s="24"/>
-      <c r="K2" s="24"/>
-      <c r="L2" s="24"/>
-      <c r="M2" s="24"/>
-      <c r="N2" s="24"/>
-      <c r="O2" s="24"/>
+      <c r="B2" s="20"/>
+      <c r="C2" s="20"/>
+      <c r="D2" s="20"/>
+      <c r="E2" s="20"/>
+      <c r="F2" s="20"/>
+      <c r="G2" s="20"/>
+      <c r="H2" s="20"/>
+      <c r="I2" s="20"/>
+      <c r="J2" s="20"/>
+      <c r="K2" s="20"/>
+      <c r="L2" s="20"/>
+      <c r="M2" s="20"/>
+      <c r="N2" s="20"/>
+      <c r="O2" s="20"/>
     </row>
     <row r="3" spans="1:15" s="5" customFormat="1" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="A3" s="17" t="s">
+      <c r="A3" s="18" t="s">
         <v>553</v>
       </c>
-      <c r="B3" s="17"/>
-      <c r="C3" s="17"/>
-      <c r="D3" s="17"/>
-      <c r="E3" s="17"/>
-      <c r="F3" s="17"/>
-      <c r="G3" s="23" t="s">
+      <c r="B3" s="18"/>
+      <c r="C3" s="18"/>
+      <c r="D3" s="18"/>
+      <c r="E3" s="18"/>
+      <c r="F3" s="18"/>
+      <c r="G3" s="19" t="s">
         <v>552</v>
       </c>
-      <c r="H3" s="23"/>
-      <c r="I3" s="23"/>
-      <c r="J3" s="23"/>
-      <c r="K3" s="23"/>
-      <c r="L3" s="23"/>
-      <c r="M3" s="23"/>
-      <c r="N3" s="23"/>
-      <c r="O3" s="23"/>
+      <c r="H3" s="19"/>
+      <c r="I3" s="19"/>
+      <c r="J3" s="19"/>
+      <c r="K3" s="19"/>
+      <c r="L3" s="19"/>
+      <c r="M3" s="19"/>
+      <c r="N3" s="19"/>
+      <c r="O3" s="19"/>
     </row>
     <row r="4" spans="1:15" s="5" customFormat="1" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="A4" s="24" t="s">
+      <c r="A4" s="20" t="s">
         <v>555</v>
       </c>
-      <c r="B4" s="24"/>
-      <c r="C4" s="24"/>
-      <c r="D4" s="24"/>
-      <c r="E4" s="24"/>
-      <c r="F4" s="24"/>
-      <c r="G4" s="24"/>
-      <c r="H4" s="24"/>
-      <c r="I4" s="24"/>
-      <c r="J4" s="24"/>
-      <c r="K4" s="24"/>
-      <c r="L4" s="24"/>
-      <c r="M4" s="24"/>
-      <c r="N4" s="24"/>
-      <c r="O4" s="24"/>
+      <c r="B4" s="20"/>
+      <c r="C4" s="20"/>
+      <c r="D4" s="20"/>
+      <c r="E4" s="20"/>
+      <c r="F4" s="20"/>
+      <c r="G4" s="20"/>
+      <c r="H4" s="20"/>
+      <c r="I4" s="20"/>
+      <c r="J4" s="20"/>
+      <c r="K4" s="20"/>
+      <c r="L4" s="20"/>
+      <c r="M4" s="20"/>
+      <c r="N4" s="20"/>
+      <c r="O4" s="20"/>
     </row>
     <row r="5" spans="1:15" s="5" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A5" s="18"/>
-      <c r="B5" s="18"/>
-      <c r="C5" s="18"/>
-      <c r="D5" s="18"/>
-      <c r="E5" s="18"/>
-      <c r="F5" s="18"/>
-      <c r="G5" s="18"/>
-      <c r="H5" s="18"/>
-      <c r="I5" s="18"/>
-      <c r="J5" s="18"/>
-      <c r="K5" s="18"/>
-      <c r="L5" s="18"/>
-      <c r="M5" s="18"/>
-      <c r="N5" s="18"/>
-      <c r="O5" s="18"/>
+      <c r="A5" s="21"/>
+      <c r="B5" s="21"/>
+      <c r="C5" s="21"/>
+      <c r="D5" s="21"/>
+      <c r="E5" s="21"/>
+      <c r="F5" s="21"/>
+      <c r="G5" s="21"/>
+      <c r="H5" s="21"/>
+      <c r="I5" s="21"/>
+      <c r="J5" s="21"/>
+      <c r="K5" s="21"/>
+      <c r="L5" s="21"/>
+      <c r="M5" s="21"/>
+      <c r="N5" s="21"/>
+      <c r="O5" s="21"/>
     </row>
     <row r="6" spans="1:15" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="A6" s="17" t="s">
+      <c r="A6" s="18" t="s">
         <v>548</v>
       </c>
-      <c r="B6" s="17"/>
-      <c r="C6" s="17"/>
-      <c r="D6" s="17"/>
-      <c r="E6" s="17"/>
-      <c r="F6" s="17"/>
-      <c r="G6" s="17"/>
-      <c r="H6" s="17"/>
-      <c r="I6" s="17"/>
-      <c r="J6" s="17"/>
-      <c r="K6" s="17"/>
-      <c r="L6" s="17"/>
-      <c r="M6" s="17"/>
-      <c r="N6" s="17"/>
-      <c r="O6" s="17"/>
+      <c r="B6" s="18"/>
+      <c r="C6" s="18"/>
+      <c r="D6" s="18"/>
+      <c r="E6" s="18"/>
+      <c r="F6" s="18"/>
+      <c r="G6" s="18"/>
+      <c r="H6" s="18"/>
+      <c r="I6" s="18"/>
+      <c r="J6" s="18"/>
+      <c r="K6" s="18"/>
+      <c r="L6" s="18"/>
+      <c r="M6" s="18"/>
+      <c r="N6" s="18"/>
+      <c r="O6" s="18"/>
     </row>
     <row r="7" spans="1:15" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="A7" s="17" t="s">
+      <c r="A7" s="18" t="s">
         <v>549</v>
       </c>
-      <c r="B7" s="17"/>
-      <c r="C7" s="17"/>
-      <c r="D7" s="17"/>
-      <c r="E7" s="17"/>
-      <c r="F7" s="17"/>
-      <c r="G7" s="17"/>
-      <c r="H7" s="17"/>
-      <c r="I7" s="17"/>
-      <c r="J7" s="17"/>
-      <c r="K7" s="17"/>
-      <c r="L7" s="17"/>
-      <c r="M7" s="17"/>
-      <c r="N7" s="17"/>
-      <c r="O7" s="17"/>
+      <c r="B7" s="18"/>
+      <c r="C7" s="18"/>
+      <c r="D7" s="18"/>
+      <c r="E7" s="18"/>
+      <c r="F7" s="18"/>
+      <c r="G7" s="18"/>
+      <c r="H7" s="18"/>
+      <c r="I7" s="18"/>
+      <c r="J7" s="18"/>
+      <c r="K7" s="18"/>
+      <c r="L7" s="18"/>
+      <c r="M7" s="18"/>
+      <c r="N7" s="18"/>
+      <c r="O7" s="18"/>
     </row>
     <row r="8" spans="1:15" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="A8" s="17" t="s">
+      <c r="A8" s="18" t="s">
         <v>550</v>
       </c>
-      <c r="B8" s="17"/>
-      <c r="C8" s="17"/>
-      <c r="D8" s="17"/>
-      <c r="E8" s="17"/>
-      <c r="F8" s="17"/>
-      <c r="G8" s="17"/>
-      <c r="H8" s="17"/>
-      <c r="I8" s="17"/>
-      <c r="J8" s="17"/>
-      <c r="K8" s="17"/>
-      <c r="L8" s="17"/>
-      <c r="M8" s="17"/>
-      <c r="N8" s="17"/>
-      <c r="O8" s="17"/>
+      <c r="B8" s="18"/>
+      <c r="C8" s="18"/>
+      <c r="D8" s="18"/>
+      <c r="E8" s="18"/>
+      <c r="F8" s="18"/>
+      <c r="G8" s="18"/>
+      <c r="H8" s="18"/>
+      <c r="I8" s="18"/>
+      <c r="J8" s="18"/>
+      <c r="K8" s="18"/>
+      <c r="L8" s="18"/>
+      <c r="M8" s="18"/>
+      <c r="N8" s="18"/>
+      <c r="O8" s="18"/>
     </row>
     <row r="9" spans="1:15" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A9" s="18"/>
-      <c r="B9" s="18"/>
-      <c r="C9" s="18"/>
-      <c r="D9" s="18"/>
-      <c r="E9" s="18"/>
-      <c r="F9" s="18"/>
-      <c r="G9" s="18"/>
-      <c r="H9" s="18"/>
-      <c r="I9" s="18"/>
-      <c r="J9" s="18"/>
-      <c r="K9" s="18"/>
-      <c r="L9" s="18"/>
-      <c r="M9" s="18"/>
-      <c r="N9" s="18"/>
-      <c r="O9" s="18"/>
+      <c r="A9" s="21"/>
+      <c r="B9" s="21"/>
+      <c r="C9" s="21"/>
+      <c r="D9" s="21"/>
+      <c r="E9" s="21"/>
+      <c r="F9" s="21"/>
+      <c r="G9" s="21"/>
+      <c r="H9" s="21"/>
+      <c r="I9" s="21"/>
+      <c r="J9" s="21"/>
+      <c r="K9" s="21"/>
+      <c r="L9" s="21"/>
+      <c r="M9" s="21"/>
+      <c r="N9" s="21"/>
+      <c r="O9" s="21"/>
     </row>
     <row r="10" spans="1:15" ht="18.600000000000001" thickBot="1" x14ac:dyDescent="0.4">
       <c r="D10" s="11" t="s">
@@ -2895,29 +2896,29 @@
       <c r="D26" s="9" t="s">
         <v>500</v>
       </c>
-      <c r="E26" s="19" t="s">
+      <c r="E26" s="22" t="s">
         <v>560</v>
       </c>
-      <c r="F26" s="20"/>
-      <c r="G26" s="20"/>
-      <c r="H26" s="20"/>
-      <c r="I26" s="20"/>
-      <c r="J26" s="20"/>
-      <c r="K26" s="21"/>
+      <c r="F26" s="23"/>
+      <c r="G26" s="23"/>
+      <c r="H26" s="23"/>
+      <c r="I26" s="23"/>
+      <c r="J26" s="23"/>
+      <c r="K26" s="24"/>
     </row>
   </sheetData>
   <mergeCells count="11">
-    <mergeCell ref="A1:O1"/>
-    <mergeCell ref="A3:F3"/>
-    <mergeCell ref="G3:O3"/>
-    <mergeCell ref="A2:O2"/>
-    <mergeCell ref="A4:O4"/>
     <mergeCell ref="A7:O7"/>
     <mergeCell ref="A6:O6"/>
     <mergeCell ref="A5:O5"/>
     <mergeCell ref="A9:O9"/>
     <mergeCell ref="E26:K26"/>
     <mergeCell ref="A8:O8"/>
+    <mergeCell ref="A1:O1"/>
+    <mergeCell ref="A3:F3"/>
+    <mergeCell ref="G3:O3"/>
+    <mergeCell ref="A2:O2"/>
+    <mergeCell ref="A4:O4"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
@@ -4877,7 +4878,9 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{CBB8C614-8928-4D3C-B5D5-0F9774F630CF}">
   <dimension ref="A1:B172"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView topLeftCell="A142" workbookViewId="0">
+      <selection activeCell="B150" sqref="B150"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
@@ -5918,7 +5921,7 @@
         <v>54</v>
       </c>
       <c r="B134" t="s">
-        <v>391</v>
+        <v>208</v>
       </c>
     </row>
     <row r="135" spans="1:2" x14ac:dyDescent="0.3">
@@ -6232,7 +6235,9 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{07A16D28-FCCC-46F8-B3A0-85DD52185568}">
   <dimension ref="A1:B82"/>
   <sheetViews>
-    <sheetView zoomScaleNormal="100" workbookViewId="0"/>
+    <sheetView topLeftCell="A43" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="A63" sqref="A63"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
@@ -6698,7 +6703,7 @@
     </row>
     <row r="58" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A58" t="s">
-        <v>391</v>
+        <v>208</v>
       </c>
       <c r="B58" t="s">
         <v>392</v>
@@ -6706,7 +6711,7 @@
     </row>
     <row r="59" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A59" t="s">
-        <v>391</v>
+        <v>208</v>
       </c>
       <c r="B59" t="s">
         <v>449</v>
@@ -6714,7 +6719,7 @@
     </row>
     <row r="60" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A60" t="s">
-        <v>391</v>
+        <v>208</v>
       </c>
       <c r="B60" t="s">
         <v>393</v>
@@ -6722,7 +6727,7 @@
     </row>
     <row r="61" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A61" t="s">
-        <v>391</v>
+        <v>208</v>
       </c>
       <c r="B61" t="s">
         <v>448</v>
@@ -6906,7 +6911,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E5229960-A56A-4409-9B42-A6958AA07318}">
   <dimension ref="A1:B61"/>
   <sheetViews>
-    <sheetView zoomScaleNormal="100" workbookViewId="0"/>
+    <sheetView tabSelected="1" topLeftCell="A40" zoomScaleNormal="100" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
@@ -7411,8 +7416,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{5445E545-0E3C-4902-BF57-3E506C7BD45C}">
   <dimension ref="A1:C24"/>
   <sheetViews>
-    <sheetView topLeftCell="C1" workbookViewId="0">
-      <selection activeCell="C1" sqref="C1"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A19" sqref="A19"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
